--- a/final_ass_time_changed/data/losses_tables/A.5_lossestable.xlsx
+++ b/final_ass_time_changed/data/losses_tables/A.5_lossestable.xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27804"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_910322DCFC84E02F290026B6ADE60407E1121BDB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F59C7132-987C-4971-8E93-065250D3C14A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,23 +42,23 @@
     <t>h</t>
   </si>
   <si>
+    <t>deaths</t>
+  </si>
+  <si>
     <t>losses</t>
   </si>
   <si>
-    <t>WL</t>
+    <t>affected people</t>
   </si>
   <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>affected people</t>
+    <t>WL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,10 +120,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -114,14 +131,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -159,7 +179,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -231,7 +251,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -404,19 +424,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="7" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,19 +447,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -465,55 +485,121 @@
         <v>6.7260703458018458</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>628450000</v>
+        <f>(B2+B4)/2</f>
+        <v>606170000</v>
       </c>
       <c r="C3">
-        <v>82337696</v>
+        <f t="shared" ref="C3:H3" si="0">(C2+C4)/2</f>
+        <v>57977896</v>
       </c>
       <c r="D3">
-        <v>0.1310170992123478</v>
-      </c>
-      <c r="E3" s="2">
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>9.4296588449106655E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
       <c r="F3">
-        <v>2863000000</v>
-      </c>
-      <c r="G3" s="2">
-        <v>49565</v>
+        <f t="shared" si="0"/>
+        <v>2009500000</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>36897.5</v>
       </c>
       <c r="H3">
-        <v>7.2578305013501652</v>
+        <f t="shared" si="0"/>
+        <v>6.9919504235760055</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>628450000</v>
+      </c>
+      <c r="C4">
+        <v>82337696</v>
+      </c>
+      <c r="D4">
+        <v>0.1310170992123478</v>
+      </c>
+      <c r="E4" s="2">
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <v>2863000000</v>
+      </c>
+      <c r="G4" s="2">
+        <v>49565</v>
+      </c>
+      <c r="H4">
+        <v>7.2578305013501652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f>(B4+B6)/2</f>
+        <v>657100000</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:H5" si="1">(C4+C6)/2</f>
+        <v>113769648</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.17137920217635255</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>4585000000</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>76968</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>7.5566602506750797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>685750000</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>145201600</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <v>0.2117413051403573</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E6" s="2">
         <v>186</v>
       </c>
-      <c r="F4">
+      <c r="F6">
         <v>6307000000</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G6" s="2">
         <v>104371</v>
       </c>
-      <c r="H4">
+      <c r="H6">
         <v>7.8554899999999952</v>
       </c>
     </row>
